--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H2">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I2">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J2">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.05056925663</v>
+        <v>51.78202533333334</v>
       </c>
       <c r="N2">
-        <v>49.05056925663</v>
+        <v>155.346076</v>
       </c>
       <c r="O2">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="P2">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="Q2">
-        <v>18174.34808494351</v>
+        <v>19268.53387955103</v>
       </c>
       <c r="R2">
-        <v>18174.34808494351</v>
+        <v>173416.8049159592</v>
       </c>
       <c r="S2">
-        <v>0.6159185795397977</v>
+        <v>0.5830954011402683</v>
       </c>
       <c r="T2">
-        <v>0.6159185795397977</v>
+        <v>0.5830954011402683</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H3">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I3">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J3">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.3636656679166</v>
+        <v>10.38032666666667</v>
       </c>
       <c r="N3">
-        <v>10.3636656679166</v>
+        <v>31.14098</v>
       </c>
       <c r="O3">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="P3">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="Q3">
-        <v>3839.973116300499</v>
+        <v>3862.608207576617</v>
       </c>
       <c r="R3">
-        <v>3839.973116300499</v>
+        <v>34763.47386818955</v>
       </c>
       <c r="S3">
-        <v>0.1301345597767098</v>
+        <v>0.1168884512087777</v>
       </c>
       <c r="T3">
-        <v>0.1301345597767098</v>
+        <v>0.1168884512087777</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H4">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I4">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J4">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.522575869387925</v>
+        <v>0.523303</v>
       </c>
       <c r="N4">
-        <v>0.522575869387925</v>
+        <v>1.569909</v>
       </c>
       <c r="O4">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="P4">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="Q4">
-        <v>193.6262085228376</v>
+        <v>194.7255156564886</v>
       </c>
       <c r="R4">
-        <v>193.6262085228376</v>
+        <v>1752.529640908398</v>
       </c>
       <c r="S4">
-        <v>0.006561884847680546</v>
+        <v>0.005892692893695733</v>
       </c>
       <c r="T4">
-        <v>0.006561884847680546</v>
+        <v>0.005892692893695733</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H5">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I5">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J5">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.344467926508024</v>
+        <v>3.511976</v>
       </c>
       <c r="N5">
-        <v>0.344467926508024</v>
+        <v>10.535928</v>
       </c>
       <c r="O5">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="P5">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="Q5">
-        <v>127.6331772563345</v>
+        <v>1306.836264216357</v>
       </c>
       <c r="R5">
-        <v>127.6331772563345</v>
+        <v>11761.52637794722</v>
       </c>
       <c r="S5">
-        <v>0.004325417608953928</v>
+        <v>0.0395468705855498</v>
       </c>
       <c r="T5">
-        <v>0.004325417608953928</v>
+        <v>0.03954687058554979</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H6">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I6">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J6">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.90650227093117</v>
+        <v>5.692542</v>
       </c>
       <c r="N6">
-        <v>4.90650227093117</v>
+        <v>17.077626</v>
       </c>
       <c r="O6">
-        <v>0.07526720799992327</v>
+        <v>0.07918386842663461</v>
       </c>
       <c r="P6">
-        <v>0.07526720799992327</v>
+        <v>0.07918386842663462</v>
       </c>
       <c r="Q6">
-        <v>1817.970341688048</v>
+        <v>2118.243496303708</v>
       </c>
       <c r="R6">
-        <v>1817.970341688048</v>
+        <v>19064.19146673337</v>
       </c>
       <c r="S6">
-        <v>0.06161000687697917</v>
+        <v>0.06410129846468393</v>
       </c>
       <c r="T6">
-        <v>0.06161000687697917</v>
+        <v>0.06410129846468395</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.1838909844147</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H7">
-        <v>65.1838909844147</v>
+        <v>209.114842</v>
       </c>
       <c r="I7">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J7">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>49.05056925663</v>
+        <v>51.78202533333334</v>
       </c>
       <c r="N7">
-        <v>49.05056925663</v>
+        <v>155.346076</v>
       </c>
       <c r="O7">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="P7">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="Q7">
-        <v>3197.306959147653</v>
+        <v>3609.463348673333</v>
       </c>
       <c r="R7">
-        <v>3197.306959147653</v>
+        <v>32485.17013806</v>
       </c>
       <c r="S7">
-        <v>0.1083549600473635</v>
+        <v>0.1092278993488638</v>
       </c>
       <c r="T7">
-        <v>0.1083549600473635</v>
+        <v>0.1092278993488638</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>65.1838909844147</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H8">
-        <v>65.1838909844147</v>
+        <v>209.114842</v>
       </c>
       <c r="I8">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J8">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.3636656679166</v>
+        <v>10.38032666666667</v>
       </c>
       <c r="N8">
-        <v>10.3636656679166</v>
+        <v>31.14098</v>
       </c>
       <c r="O8">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="P8">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="Q8">
-        <v>675.544053096397</v>
+        <v>723.5601236027956</v>
       </c>
       <c r="R8">
-        <v>675.544053096397</v>
+        <v>6512.04111242516</v>
       </c>
       <c r="S8">
-        <v>0.02289381339319625</v>
+        <v>0.02189603958239011</v>
       </c>
       <c r="T8">
-        <v>0.02289381339319625</v>
+        <v>0.02189603958239011</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>65.1838909844147</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H9">
-        <v>65.1838909844147</v>
+        <v>209.114842</v>
       </c>
       <c r="I9">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J9">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.522575869387925</v>
+        <v>0.523303</v>
       </c>
       <c r="N9">
-        <v>0.522575869387925</v>
+        <v>1.569909</v>
       </c>
       <c r="O9">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="P9">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="Q9">
-        <v>34.06352850126824</v>
+        <v>36.47680805437533</v>
       </c>
       <c r="R9">
-        <v>34.06352850126824</v>
+        <v>328.291272489378</v>
       </c>
       <c r="S9">
-        <v>0.001154394093837988</v>
+        <v>0.001103844182320225</v>
       </c>
       <c r="T9">
-        <v>0.001154394093837988</v>
+        <v>0.001103844182320225</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>65.1838909844147</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H10">
-        <v>65.1838909844147</v>
+        <v>209.114842</v>
       </c>
       <c r="I10">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J10">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.344467926508024</v>
+        <v>3.511976</v>
       </c>
       <c r="N10">
-        <v>0.344467926508024</v>
+        <v>10.535928</v>
       </c>
       <c r="O10">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="P10">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="Q10">
-        <v>22.45375976912641</v>
+        <v>244.8021021159307</v>
       </c>
       <c r="R10">
-        <v>22.45375976912641</v>
+        <v>2203.218919043376</v>
       </c>
       <c r="S10">
-        <v>0.0007609454687282762</v>
+        <v>0.007408087238269709</v>
       </c>
       <c r="T10">
-        <v>0.0007609454687282762</v>
+        <v>0.007408087238269708</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>65.1838909844147</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H11">
-        <v>65.1838909844147</v>
+        <v>209.114842</v>
       </c>
       <c r="I11">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J11">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.90650227093117</v>
+        <v>5.692542</v>
       </c>
       <c r="N11">
-        <v>4.90650227093117</v>
+        <v>17.077626</v>
       </c>
       <c r="O11">
-        <v>0.07526720799992327</v>
+        <v>0.07918386842663461</v>
       </c>
       <c r="P11">
-        <v>0.07526720799992327</v>
+        <v>0.07918386842663462</v>
       </c>
       <c r="Q11">
-        <v>319.8249091431605</v>
+        <v>396.7983403027881</v>
       </c>
       <c r="R11">
-        <v>319.8249091431605</v>
+        <v>3571.185062725093</v>
       </c>
       <c r="S11">
-        <v>0.01083868883880863</v>
+        <v>0.01200772663125099</v>
       </c>
       <c r="T11">
-        <v>0.01083868883880863</v>
+        <v>0.01200772663125099</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.307342147356449</v>
+        <v>0.387356</v>
       </c>
       <c r="H12">
-        <v>0.307342147356449</v>
+        <v>1.162068</v>
       </c>
       <c r="I12">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="J12">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.05056925663</v>
+        <v>51.78202533333334</v>
       </c>
       <c r="N12">
-        <v>49.05056925663</v>
+        <v>155.346076</v>
       </c>
       <c r="O12">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="P12">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="Q12">
-        <v>15.07530728438888</v>
+        <v>20.05807820501867</v>
       </c>
       <c r="R12">
-        <v>15.07530728438888</v>
+        <v>180.522703845168</v>
       </c>
       <c r="S12">
-        <v>0.0005108938051219031</v>
+        <v>0.0006069882239182981</v>
       </c>
       <c r="T12">
-        <v>0.0005108938051219031</v>
+        <v>0.0006069882239182981</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.307342147356449</v>
+        <v>0.387356</v>
       </c>
       <c r="H13">
-        <v>0.307342147356449</v>
+        <v>1.162068</v>
       </c>
       <c r="I13">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="J13">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.3636656679166</v>
+        <v>10.38032666666667</v>
       </c>
       <c r="N13">
-        <v>10.3636656679166</v>
+        <v>31.14098</v>
       </c>
       <c r="O13">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="P13">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="Q13">
-        <v>3.185191260861795</v>
+        <v>4.020881816293334</v>
       </c>
       <c r="R13">
-        <v>3.185191260861795</v>
+        <v>36.18793634664</v>
       </c>
       <c r="S13">
-        <v>0.0001079443657501991</v>
+        <v>0.0001216780534660897</v>
       </c>
       <c r="T13">
-        <v>0.0001079443657501991</v>
+        <v>0.0001216780534660897</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.307342147356449</v>
+        <v>0.387356</v>
       </c>
       <c r="H14">
-        <v>0.307342147356449</v>
+        <v>1.162068</v>
       </c>
       <c r="I14">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="J14">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.522575869387925</v>
+        <v>0.523303</v>
       </c>
       <c r="N14">
-        <v>0.522575869387925</v>
+        <v>1.569909</v>
       </c>
       <c r="O14">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="P14">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="Q14">
-        <v>0.1606095898543481</v>
+        <v>0.202704556868</v>
       </c>
       <c r="R14">
-        <v>0.1606095898543481</v>
+        <v>1.824341011812</v>
       </c>
       <c r="S14">
-        <v>5.442969947599471E-06</v>
+        <v>6.134150923923893E-06</v>
       </c>
       <c r="T14">
-        <v>5.442969947599471E-06</v>
+        <v>6.134150923923893E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.307342147356449</v>
+        <v>0.387356</v>
       </c>
       <c r="H15">
-        <v>0.307342147356449</v>
+        <v>1.162068</v>
       </c>
       <c r="I15">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="J15">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.344467926508024</v>
+        <v>3.511976</v>
       </c>
       <c r="N15">
-        <v>0.344467926508024</v>
+        <v>10.535928</v>
       </c>
       <c r="O15">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="P15">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="Q15">
-        <v>0.1058695122283995</v>
+        <v>1.360384975456</v>
       </c>
       <c r="R15">
-        <v>0.1058695122283995</v>
+        <v>12.243464779104</v>
       </c>
       <c r="S15">
-        <v>3.587859068370525E-06</v>
+        <v>4.116733675365618E-05</v>
       </c>
       <c r="T15">
-        <v>3.587859068370525E-06</v>
+        <v>4.116733675365618E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.307342147356449</v>
+        <v>0.387356</v>
       </c>
       <c r="H16">
-        <v>0.307342147356449</v>
+        <v>1.162068</v>
       </c>
       <c r="I16">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="J16">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.90650227093117</v>
+        <v>5.692542</v>
       </c>
       <c r="N16">
-        <v>4.90650227093117</v>
+        <v>17.077626</v>
       </c>
       <c r="O16">
-        <v>0.07526720799992327</v>
+        <v>0.07918386842663461</v>
       </c>
       <c r="P16">
-        <v>0.07526720799992327</v>
+        <v>0.07918386842663462</v>
       </c>
       <c r="Q16">
-        <v>1.507974943957279</v>
+        <v>2.205040298952</v>
       </c>
       <c r="R16">
-        <v>1.507974943957279</v>
+        <v>19.845362690568</v>
       </c>
       <c r="S16">
-        <v>5.110443472980615E-05</v>
+        <v>6.672790289521667E-05</v>
       </c>
       <c r="T16">
-        <v>5.110443472980615E-05</v>
+        <v>6.672790289521668E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.419125199882072</v>
+        <v>0.425022</v>
       </c>
       <c r="H17">
-        <v>0.419125199882072</v>
+        <v>1.275066</v>
       </c>
       <c r="I17">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="J17">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>49.05056925663</v>
+        <v>51.78202533333334</v>
       </c>
       <c r="N17">
-        <v>49.05056925663</v>
+        <v>155.346076</v>
       </c>
       <c r="O17">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="P17">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="Q17">
-        <v>20.55832964401446</v>
+        <v>22.008499971224</v>
       </c>
       <c r="R17">
-        <v>20.55832964401446</v>
+        <v>198.076499741016</v>
       </c>
       <c r="S17">
-        <v>0.000696710392739881</v>
+        <v>0.0006660109793218716</v>
       </c>
       <c r="T17">
-        <v>0.000696710392739881</v>
+        <v>0.0006660109793218716</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.419125199882072</v>
+        <v>0.425022</v>
       </c>
       <c r="H18">
-        <v>0.419125199882072</v>
+        <v>1.275066</v>
       </c>
       <c r="I18">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="J18">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.3636656679166</v>
+        <v>10.38032666666667</v>
       </c>
       <c r="N18">
-        <v>10.3636656679166</v>
+        <v>31.14098</v>
       </c>
       <c r="O18">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="P18">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="Q18">
-        <v>4.343673444576511</v>
+        <v>4.411867200520001</v>
       </c>
       <c r="R18">
-        <v>4.343673444576511</v>
+        <v>39.70680480468</v>
       </c>
       <c r="S18">
-        <v>0.000147204684617254</v>
+        <v>0.000133509871126985</v>
       </c>
       <c r="T18">
-        <v>0.000147204684617254</v>
+        <v>0.000133509871126985</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.419125199882072</v>
+        <v>0.425022</v>
       </c>
       <c r="H19">
-        <v>0.419125199882072</v>
+        <v>1.275066</v>
       </c>
       <c r="I19">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="J19">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.522575869387925</v>
+        <v>0.523303</v>
       </c>
       <c r="N19">
-        <v>0.522575869387925</v>
+        <v>1.569909</v>
       </c>
       <c r="O19">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="P19">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="Q19">
-        <v>0.2190247157107616</v>
+        <v>0.222415287666</v>
       </c>
       <c r="R19">
-        <v>0.2190247157107616</v>
+        <v>2.001737588994</v>
       </c>
       <c r="S19">
-        <v>7.422626173669412E-06</v>
+        <v>6.730627882330417E-06</v>
       </c>
       <c r="T19">
-        <v>7.422626173669412E-06</v>
+        <v>6.730627882330417E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.419125199882072</v>
+        <v>0.425022</v>
       </c>
       <c r="H20">
-        <v>0.419125199882072</v>
+        <v>1.275066</v>
       </c>
       <c r="I20">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="J20">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.344467926508024</v>
+        <v>3.511976</v>
       </c>
       <c r="N20">
-        <v>0.344467926508024</v>
+        <v>10.535928</v>
       </c>
       <c r="O20">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="P20">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="Q20">
-        <v>0.1443751885506384</v>
+        <v>1.492667063472</v>
       </c>
       <c r="R20">
-        <v>0.1443751885506384</v>
+        <v>13.434003571248</v>
       </c>
       <c r="S20">
-        <v>4.892795088841067E-06</v>
+        <v>4.517039571276154E-05</v>
       </c>
       <c r="T20">
-        <v>4.892795088841067E-06</v>
+        <v>4.517039571276153E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.419125199882072</v>
+        <v>0.425022</v>
       </c>
       <c r="H21">
-        <v>0.419125199882072</v>
+        <v>1.275066</v>
       </c>
       <c r="I21">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="J21">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.90650227093117</v>
+        <v>5.692542</v>
       </c>
       <c r="N21">
-        <v>4.90650227093117</v>
+        <v>17.077626</v>
       </c>
       <c r="O21">
-        <v>0.07526720799992327</v>
+        <v>0.07918386842663461</v>
       </c>
       <c r="P21">
-        <v>0.07526720799992327</v>
+        <v>0.07918386842663462</v>
       </c>
       <c r="Q21">
-        <v>2.056438745025866</v>
+        <v>2.419455585924</v>
       </c>
       <c r="R21">
-        <v>2.056438745025866</v>
+        <v>21.775100273316</v>
       </c>
       <c r="S21">
-        <v>6.969156884346492E-05</v>
+        <v>7.321643848121825E-05</v>
       </c>
       <c r="T21">
-        <v>6.969156884346492E-05</v>
+        <v>7.321643848121827E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.2240697702672</v>
+        <v>17.03711166666666</v>
       </c>
       <c r="H22">
-        <v>16.2240697702672</v>
+        <v>51.111335</v>
       </c>
       <c r="I22">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="J22">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>49.05056925663</v>
+        <v>51.78202533333334</v>
       </c>
       <c r="N22">
-        <v>49.05056925663</v>
+        <v>155.346076</v>
       </c>
       <c r="O22">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="P22">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="Q22">
-        <v>795.7998578908885</v>
+        <v>882.2161479301622</v>
       </c>
       <c r="R22">
-        <v>795.7998578908885</v>
+        <v>7939.94533137146</v>
       </c>
       <c r="S22">
-        <v>0.02696921593992086</v>
+        <v>0.02669721432286505</v>
       </c>
       <c r="T22">
-        <v>0.02696921593992086</v>
+        <v>0.02669721432286505</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.2240697702672</v>
+        <v>17.03711166666666</v>
       </c>
       <c r="H23">
-        <v>16.2240697702672</v>
+        <v>51.111335</v>
       </c>
       <c r="I23">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="J23">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.3636656679166</v>
+        <v>10.38032666666667</v>
       </c>
       <c r="N23">
-        <v>10.3636656679166</v>
+        <v>31.14098</v>
       </c>
       <c r="O23">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="P23">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="Q23">
-        <v>168.1408348720017</v>
+        <v>176.8507845564777</v>
       </c>
       <c r="R23">
-        <v>168.1408348720017</v>
+        <v>1591.6570610083</v>
       </c>
       <c r="S23">
-        <v>0.005698199665428101</v>
+        <v>0.005351776103337518</v>
       </c>
       <c r="T23">
-        <v>0.005698199665428101</v>
+        <v>0.005351776103337518</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.2240697702672</v>
+        <v>17.03711166666666</v>
       </c>
       <c r="H24">
-        <v>16.2240697702672</v>
+        <v>51.111335</v>
       </c>
       <c r="I24">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="J24">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.522575869387925</v>
+        <v>0.523303</v>
       </c>
       <c r="N24">
-        <v>0.522575869387925</v>
+        <v>1.569909</v>
       </c>
       <c r="O24">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="P24">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="Q24">
-        <v>8.478307365207733</v>
+        <v>8.915571646501665</v>
       </c>
       <c r="R24">
-        <v>8.478307365207733</v>
+        <v>80.24014481851499</v>
       </c>
       <c r="S24">
-        <v>0.0002873251356733207</v>
+        <v>0.000269798878218171</v>
       </c>
       <c r="T24">
-        <v>0.0002873251356733207</v>
+        <v>0.000269798878218171</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.2240697702672</v>
+        <v>17.03711166666666</v>
       </c>
       <c r="H25">
-        <v>16.2240697702672</v>
+        <v>51.111335</v>
       </c>
       <c r="I25">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="J25">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.344467926508024</v>
+        <v>3.511976</v>
       </c>
       <c r="N25">
-        <v>0.344467926508024</v>
+        <v>10.535928</v>
       </c>
       <c r="O25">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="P25">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="Q25">
-        <v>5.588671673285456</v>
+        <v>59.83392728265333</v>
       </c>
       <c r="R25">
-        <v>5.588671673285456</v>
+        <v>538.50534554388</v>
       </c>
       <c r="S25">
-        <v>0.0001893969842789538</v>
+        <v>0.001810666449703402</v>
       </c>
       <c r="T25">
-        <v>0.0001893969842789538</v>
+        <v>0.001810666449703402</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>16.2240697702672</v>
+        <v>17.03711166666666</v>
       </c>
       <c r="H26">
-        <v>16.2240697702672</v>
+        <v>51.111335</v>
       </c>
       <c r="I26">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="J26">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.90650227093117</v>
+        <v>5.692542</v>
       </c>
       <c r="N26">
-        <v>4.90650227093117</v>
+        <v>17.077626</v>
       </c>
       <c r="O26">
-        <v>0.07526720799992327</v>
+        <v>0.07918386842663461</v>
       </c>
       <c r="P26">
-        <v>0.07526720799992327</v>
+        <v>0.07918386842663462</v>
       </c>
       <c r="Q26">
-        <v>79.60343517156176</v>
+        <v>96.98447372119</v>
       </c>
       <c r="R26">
-        <v>79.60343517156176</v>
+        <v>872.8602634907101</v>
       </c>
       <c r="S26">
-        <v>0.002697716280562207</v>
+        <v>0.002934898989323248</v>
       </c>
       <c r="T26">
-        <v>0.002697716280562207</v>
+        <v>0.002934898989323249</v>
       </c>
     </row>
   </sheetData>
